--- a/data/allrfu_cfu.xlsx
+++ b/data/allrfu_cfu.xlsx
@@ -6367,7 +6367,7 @@
         </is>
       </c>
       <c r="L112">
-        <v>7502.3</v>
+        <v>7502.299999999999</v>
       </c>
     </row>
     <row r="113">
@@ -14068,7 +14068,7 @@
         </is>
       </c>
       <c r="L256">
-        <v>8076.95</v>
+        <v>8076.950000000001</v>
       </c>
     </row>
     <row r="257">
@@ -15104,7 +15104,7 @@
         </is>
       </c>
       <c r="L276">
-        <v>6131.2</v>
+        <v>6131.200000000001</v>
       </c>
       <c r="M276">
         <v>772500000</v>
